--- a/movies_Analysis_Project.xlsx
+++ b/movies_Analysis_Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects on Data Analytics\Movie Analysis Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E170141C-CA37-45BA-9971-A9F580BDA73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1D519D-1D8F-4791-A2C6-3CF6976632D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -574,9 +574,6 @@
     <t>Total Bollywood Revenue (Min) INR</t>
   </si>
   <si>
-    <t>Avg Bollywodd Revenue (Min) INR</t>
-  </si>
-  <si>
     <t>Total Hollywood Movies</t>
   </si>
   <si>
@@ -716,6 +713,9 @@
   </si>
   <si>
     <t xml:space="preserve">Variance </t>
+  </si>
+  <si>
+    <t>Avg Bollywood Revenue (Min) INR</t>
   </si>
 </sst>
 </file>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="76" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="104" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="B46" s="7">
         <f>B45/B43</f>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50">
         <f>COUNTIF(Movies[industry],"Hollywood")</f>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="6">
         <f>B50/B42</f>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B52">
         <f>SUMIF(Movies[industry],"Hollywood",Movies[Revenue INR])</f>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" s="7">
         <f>B52/B50</f>
@@ -6411,24 +6411,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="10">
         <f>SUMIF(Movies[studio],"Marvel Studios",Movies[Revenue USD])</f>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="10">
         <f>SUMIF(Movies[studio],"Marvel Studios", Movies[Budget USD])</f>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="10">
         <f>B2-B3</f>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="6">
         <f>B4/B3</f>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="6">
         <f>B2/SUMIF(Movies[industry],"Hollywood",Movies[Revenue USD])</f>
@@ -6556,7 +6556,7 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="7">
         <f>AVERAGE(Movies[imdb_rating])</f>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <f>MEDIAN(Movies[imdb_rating])</f>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <f>MODE(Movies[imdb_rating])</f>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="22">
         <f>_xlfn.VAR.P(Movies[imdb_rating])</f>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="7">
         <f>_xlfn.STDEV.P(Movies[imdb_rating])</f>
@@ -6608,7 +6608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD476351-BC15-40F3-9A7D-8346696E5F67}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -6626,14 +6626,14 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="16"/>
       <c r="I1" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
@@ -6641,34 +6641,34 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="J2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>209</v>
-      </c>
       <c r="L2" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>71</v>
@@ -6682,7 +6682,7 @@
         <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J3">
         <v>99</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4">
         <v>62</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J4">
         <v>14</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5">
         <v>66</v>
@@ -6742,7 +6742,7 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J5">
         <v>75</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6">
         <v>61</v>
@@ -6772,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J6">
         <v>84</v>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7">
         <v>54</v>
@@ -6802,7 +6802,7 @@
         <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J7">
         <v>44</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8">
         <v>67</v>
@@ -6832,7 +6832,7 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J8">
         <v>54</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9">
         <v>55</v>
@@ -6862,7 +6862,7 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9">
         <v>98</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -6892,7 +6892,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J10">
         <v>28</v>
@@ -6908,14 +6908,14 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12">
         <f>AVERAGE(C3:C10)</f>
         <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J12">
         <f>AVERAGE(J3:J10)</f>
@@ -6924,14 +6924,14 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14">
         <f>SUM(E3:E10)</f>
         <v>240</v>
       </c>
       <c r="K14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L14">
         <f>SUM(L3:L10)</f>
@@ -6940,14 +6940,14 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15">
         <f>COUNT(E3:E10)</f>
         <v>8</v>
       </c>
       <c r="K15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L15">
         <f>COUNT(L3:L10)</f>
@@ -6956,14 +6956,14 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E16" s="21">
         <f>E14/E15</f>
         <v>30</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L16" s="20">
         <f>L14/L15</f>
@@ -6972,14 +6972,14 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E17" s="23">
         <f>SQRT(E16)</f>
         <v>5.4772255750516612</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L17" s="25">
         <f>SQRT(L16)</f>
@@ -6996,15 +6996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
@@ -7021,6 +7012,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7253,20 +7253,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
     <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
